--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequest-dispenserequest-instructionfordispense.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequest-dispenserequest-instructionfordispense.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="135">
   <si>
     <t>Property</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>調剤指示</t>
+  </si>
+  <si>
+    <t>薬剤単位の調剤指示を格納する</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -260,6 +266,9 @@
     <t>Extension.id</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
   </si>
@@ -273,9 +282,6 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>n/a</t>
   </si>
   <si>
@@ -328,10 +334,7 @@
 </t>
   </si>
   <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+    <t>薬剤単位の調剤・払い出し指示</t>
   </si>
   <si>
     <t xml:space="preserve">type:$this}
@@ -346,6 +349,12 @@
   </si>
   <si>
     <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
     <t>Extension.value[x].id</t>
@@ -753,7 +762,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="73.5390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="44.26171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -919,10 +928,10 @@
         <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -982,10 +991,10 @@
         <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>75</v>
@@ -993,7 +1002,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1004,7 +1013,7 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>75</v>
@@ -1016,13 +1025,13 @@
         <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1073,13 +1082,13 @@
         <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>75</v>
@@ -1088,12 +1097,12 @@
         <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1116,13 +1125,13 @@
         <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>30</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1161,19 +1170,19 @@
         <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>76</v>
@@ -1185,7 +1194,7 @@
         <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>75</v>
@@ -1193,7 +1202,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1201,10 +1210,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>75</v>
@@ -1216,16 +1225,16 @@
         <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1275,13 +1284,13 @@
         <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>75</v>
@@ -1290,12 +1299,12 @@
         <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1306,7 +1315,7 @@
         <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>75</v>
@@ -1318,13 +1327,13 @@
         <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1363,40 +1372,40 @@
         <v>75</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>75</v>
@@ -1406,7 +1415,7 @@
         <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>75</v>
@@ -1418,13 +1427,13 @@
         <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1475,27 +1484,27 @@
         <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1506,25 +1515,25 @@
         <v>76</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="L8" t="s" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1575,13 +1584,13 @@
         <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>75</v>
@@ -1590,16 +1599,16 @@
         <v>75</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -1618,16 +1627,16 @@
         <v>75</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -1665,19 +1674,19 @@
         <v>75</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AC9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
@@ -1689,15 +1698,15 @@
         <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1717,22 +1726,22 @@
         <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>75</v>
@@ -1757,11 +1766,11 @@
         <v>75</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X10" s="2"/>
       <c r="Y10" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>75</v>
@@ -1779,7 +1788,7 @@
         <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -1791,15 +1800,15 @@
         <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1810,7 +1819,7 @@
         <v>76</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>75</v>
@@ -1819,22 +1828,22 @@
         <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>75</v>
@@ -1883,22 +1892,22 @@
         <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
